--- a/marques/Fila/REFERENCES FILA.xlsx
+++ b/marques/Fila/REFERENCES FILA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CBW\marques\Fila\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CBW 4\marques\Fila\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975335E-6A74-47FC-8455-40C36C4838EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5891D-F550-4375-94A1-B2DA6584E9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FCE544FB-9F00-4699-90AA-71B19714F99A}"/>
+    <workbookView xWindow="-8505" yWindow="-240" windowWidth="15375" windowHeight="7875" xr2:uid="{FCE544FB-9F00-4699-90AA-71B19714F99A}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINALS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
